--- a/sampledatafoodsales.xlsx
+++ b/sampledatafoodsales.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" showPivotChartFilter="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdal\Documents\ContexturesSampleFiles\tablesamples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\World\Documents\SeniorProject\datast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B1B886-A77D-4863-8815-3D438FA158C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810FCD0B-B266-4FF9-9B43-63A203E4BB03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="1725" windowWidth="20970" windowHeight="11730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="18" r:id="rId1"/>
-    <sheet name="FoodSales" sheetId="16" r:id="rId2"/>
-    <sheet name="MyLinks" sheetId="19" r:id="rId3"/>
+    <sheet name="FoodSales" sheetId="16" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="27">
   <si>
     <t>OrderDate</t>
   </si>
@@ -113,93 +111,17 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Contextures Excel Tips Website</t>
-  </si>
-  <si>
-    <t>Contextures Excel Blog</t>
-  </si>
-  <si>
-    <t>Excel Pivot Tables Blog</t>
-  </si>
-  <si>
-    <t>Contextures Recommends</t>
-  </si>
-  <si>
-    <t>Contextures Products</t>
-  </si>
-  <si>
-    <t>Contextures Sites &amp; News</t>
-  </si>
-  <si>
-    <t>Contextures Excel Newsletter</t>
-  </si>
-  <si>
-    <t>Hundreds of tutorials, tips and sample files</t>
-  </si>
-  <si>
-    <t>Read the Excel tutorials and share your comments</t>
-  </si>
-  <si>
-    <t>Pivot table tutorials and tips, with comments and questions</t>
-  </si>
-  <si>
-    <t>Other Excel Products</t>
-  </si>
-  <si>
-    <t>Other Excel tools and training, recommended by Debra</t>
-  </si>
-  <si>
-    <t>Get weekly Excel tips, tutorials, videos, and news</t>
-  </si>
-  <si>
-    <t>Related tutorials</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>UnitPrice</t>
-  </si>
-  <si>
-    <t>Downloaded From</t>
-  </si>
-  <si>
-    <t>Sample Data for Excel</t>
-  </si>
-  <si>
-    <t>Named Excel Tables</t>
-  </si>
-  <si>
-    <t>Data Entry Tips</t>
-  </si>
-  <si>
-    <t>More Excel Sample Files</t>
-  </si>
-  <si>
-    <t>Fake data to use for Excel testing</t>
-  </si>
-  <si>
-    <t>Excel products from Contextures</t>
-  </si>
-  <si>
-    <t>Get emails with Excel tips, links, and news</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -211,18 +133,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -251,36 +161,14 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Ctx_Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -308,57 +196,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2152016" cy="377190"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C30BBF-970C-40F1-927E-73030D12CB4F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="129540" y="68580"/>
-          <a:ext cx="2152016" cy="377190"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -703,120 +540,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C904DBDD-7CD6-4F3E-9F21-D393939A3BC5}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:C17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B14" sqref="B14"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:3" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" xr:uid="{EF580CFF-765C-4060-9C34-BEC703266642}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{696D80B2-9FDD-428D-8F11-FD0D11EE95DD}"/>
-    <hyperlink ref="C9" r:id="rId3" xr:uid="{803B0422-96E7-4C0D-AE78-DF5376BDD9E9}"/>
-    <hyperlink ref="C10" r:id="rId4" location="numberdate" xr:uid="{E7DECC44-B54B-481F-B965-B408CF80C4D7}"/>
-    <hyperlink ref="C11" r:id="rId5" xr:uid="{19191EE0-B233-4645-A985-78E912451CA1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BD6B5E-DD64-4F7E-92DF-95B092B1BAE2}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H245"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.59765625" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,13 +579,13 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -869,7 +612,7 @@
         <v>58.41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>43834</v>
       </c>
@@ -896,7 +639,7 @@
         <v>303.63</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>43837</v>
       </c>
@@ -923,7 +666,7 @@
         <v>108.46</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>43840</v>
       </c>
@@ -950,7 +693,7 @@
         <v>153.34</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>43843</v>
       </c>
@@ -977,7 +720,7 @@
         <v>82.84</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>43846</v>
       </c>
@@ -1004,7 +747,7 @@
         <v>95.58</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>43849</v>
       </c>
@@ -1031,7 +774,7 @@
         <v>520.01</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>43852</v>
       </c>
@@ -1058,7 +801,7 @@
         <v>90.27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>43855</v>
       </c>
@@ -1085,7 +828,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>43858</v>
       </c>
@@ -1112,7 +855,7 @@
         <v>37.800000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>43861</v>
       </c>
@@ -1139,7 +882,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>43864</v>
       </c>
@@ -1166,7 +909,7 @@
         <v>57.97</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>43867</v>
       </c>
@@ -1193,7 +936,7 @@
         <v>97.72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>43870</v>
       </c>
@@ -1220,7 +963,7 @@
         <v>77.88</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>43873</v>
       </c>
@@ -1247,7 +990,7 @@
         <v>40.71</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>43876</v>
       </c>
@@ -1274,7 +1017,7 @@
         <v>36.450000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>43879</v>
       </c>
@@ -1301,7 +1044,7 @@
         <v>93.739999999999981</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>43882</v>
       </c>
@@ -1328,7 +1071,7 @@
         <v>349.32</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>43885</v>
       </c>
@@ -1355,7 +1098,7 @@
         <v>78.540000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>43888</v>
       </c>
@@ -1382,7 +1125,7 @@
         <v>93.72</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>43892</v>
       </c>
@@ -1409,7 +1152,7 @@
         <v>158.94999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>43895</v>
       </c>
@@ -1436,7 +1179,7 @@
         <v>85.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>43898</v>
       </c>
@@ -1463,7 +1206,7 @@
         <v>107.97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>43901</v>
       </c>
@@ -1490,7 +1233,7 @@
         <v>139.6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>43904</v>
       </c>
@@ -1517,7 +1260,7 @@
         <v>160.82</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>43907</v>
       </c>
@@ -1544,7 +1287,7 @@
         <v>67.260000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>43910</v>
       </c>
@@ -1571,7 +1314,7 @@
         <v>114.24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>43913</v>
       </c>
@@ -1598,7 +1341,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>43916</v>
       </c>
@@ -1625,7 +1368,7 @@
         <v>192.61</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>43919</v>
       </c>
@@ -1652,7 +1395,7 @@
         <v>548.12</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>43922</v>
       </c>
@@ -1679,7 +1422,7 @@
         <v>102.66</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>43925</v>
       </c>
@@ -1706,7 +1449,7 @@
         <v>114.24</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>43928</v>
       </c>
@@ -1733,7 +1476,7 @@
         <v>161.07</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>43931</v>
       </c>
@@ -1760,7 +1503,7 @@
         <v>80.27</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>43934</v>
       </c>
@@ -1787,7 +1530,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>43937</v>
       </c>
@@ -1814,7 +1557,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>43940</v>
       </c>
@@ -1841,7 +1584,7 @@
         <v>225.12</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>43943</v>
       </c>
@@ -1868,7 +1611,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>43946</v>
       </c>
@@ -1895,7 +1638,7 @@
         <v>93.81</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>43949</v>
       </c>
@@ -1922,7 +1665,7 @@
         <v>107.52</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>43952</v>
       </c>
@@ -1949,7 +1692,7 @@
         <v>117.81</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>43955</v>
       </c>
@@ -1976,7 +1719,7 @@
         <v>196.35</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>43958</v>
       </c>
@@ -2003,7 +1746,7 @@
         <v>391.92</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43961</v>
       </c>
@@ -2030,7 +1773,7 @@
         <v>44.25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>43964</v>
       </c>
@@ -2057,7 +1800,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>43967</v>
       </c>
@@ -2084,7 +1827,7 @@
         <v>107.97</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>43970</v>
       </c>
@@ -2111,7 +1854,7 @@
         <v>82.32</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>43973</v>
       </c>
@@ -2138,7 +1881,7 @@
         <v>102.85</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>43976</v>
       </c>
@@ -2165,7 +1908,7 @@
         <v>58.860000000000007</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>43979</v>
       </c>
@@ -2192,7 +1935,7 @@
         <v>102.66</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>43982</v>
       </c>
@@ -2219,7 +1962,7 @@
         <v>115.17</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>43985</v>
       </c>
@@ -2246,7 +1989,7 @@
         <v>817.92</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>43988</v>
       </c>
@@ -2273,7 +2016,7 @@
         <v>142.12</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>43991</v>
       </c>
@@ -2300,7 +2043,7 @@
         <v>74.34</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>43994</v>
       </c>
@@ -2327,7 +2070,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>43997</v>
       </c>
@@ -2354,7 +2097,7 @@
         <v>132.75</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>44000</v>
       </c>
@@ -2381,7 +2124,7 @@
         <v>132.62</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>44003</v>
       </c>
@@ -2408,7 +2151,7 @@
         <v>541.62</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>44006</v>
       </c>
@@ -2435,7 +2178,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>44009</v>
       </c>
@@ -2462,7 +2205,7 @@
         <v>205.7</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>44012</v>
       </c>
@@ -2489,7 +2232,7 @@
         <v>144.84</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>44015</v>
       </c>
@@ -2516,7 +2259,7 @@
         <v>92.04</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>44018</v>
       </c>
@@ -2543,7 +2286,7 @@
         <v>97.72</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>44021</v>
       </c>
@@ -2570,7 +2313,7 @@
         <v>240.72</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>44024</v>
       </c>
@@ -2597,7 +2340,7 @@
         <v>146.58000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>44027</v>
       </c>
@@ -2624,7 +2367,7 @@
         <v>140.25</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>44030</v>
       </c>
@@ -2651,7 +2394,7 @@
         <v>134.63999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>44033</v>
       </c>
@@ -2678,7 +2421,7 @@
         <v>159.04</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>44036</v>
       </c>
@@ -2705,7 +2448,7 @@
         <v>95.37</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>44039</v>
       </c>
@@ -2732,7 +2475,7 @@
         <v>52.08</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>44042</v>
       </c>
@@ -2759,7 +2502,7 @@
         <v>104.72</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>44045</v>
       </c>
@@ -2786,7 +2529,7 @@
         <v>389.08</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>44048</v>
       </c>
@@ -2813,7 +2556,7 @@
         <v>200.09</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>44051</v>
       </c>
@@ -2840,7 +2583,7 @@
         <v>42.48</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>44054</v>
       </c>
@@ -2867,7 +2610,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>44057</v>
       </c>
@@ -2894,7 +2637,7 @@
         <v>130.9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>44060</v>
       </c>
@@ -2921,7 +2664,7 @@
         <v>67.58</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>44063</v>
       </c>
@@ -2948,7 +2691,7 @@
         <v>192.93</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>44066</v>
       </c>
@@ -2975,7 +2718,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>44069</v>
       </c>
@@ -3002,7 +2745,7 @@
         <v>149.6</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>44072</v>
       </c>
@@ -3029,7 +2772,7 @@
         <v>140.25</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>44075</v>
       </c>
@@ -3056,7 +2799,7 @@
         <v>210.16</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>44078</v>
       </c>
@@ -3083,7 +2826,7 @@
         <v>79.650000000000006</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>44081</v>
       </c>
@@ -3110,7 +2853,7 @@
         <v>61.040000000000006</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>44084</v>
       </c>
@@ -3137,7 +2880,7 @@
         <v>253.11</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>44087</v>
       </c>
@@ -3164,7 +2907,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>44090</v>
       </c>
@@ -3191,7 +2934,7 @@
         <v>235.41</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>44093</v>
       </c>
@@ -3218,7 +2961,7 @@
         <v>239.8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>44096</v>
       </c>
@@ -3245,7 +2988,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>44099</v>
       </c>
@@ -3272,7 +3015,7 @@
         <v>61.71</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>44102</v>
       </c>
@@ -3299,7 +3042,7 @@
         <v>176.58</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>44105</v>
       </c>
@@ -3326,7 +3069,7 @@
         <v>136.29</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>44108</v>
       </c>
@@ -3353,7 +3096,7 @@
         <v>132.62</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>44111</v>
       </c>
@@ -3380,7 +3123,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>44114</v>
       </c>
@@ -3407,7 +3150,7 @@
         <v>191.52</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>44117</v>
       </c>
@@ -3434,7 +3177,7 @@
         <v>488.32000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>44120</v>
       </c>
@@ -3461,7 +3204,7 @@
         <v>249.57</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>44123</v>
       </c>
@@ -3488,7 +3231,7 @@
         <v>111.68</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>44126</v>
       </c>
@@ -3515,7 +3258,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>44129</v>
       </c>
@@ -3542,7 +3285,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>44132</v>
       </c>
@@ -3569,7 +3312,7 @@
         <v>91.63</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>44135</v>
       </c>
@@ -3596,7 +3339,7 @@
         <v>160.54</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>44138</v>
       </c>
@@ -3623,7 +3366,7 @@
         <v>69.03</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>44141</v>
       </c>
@@ -3650,7 +3393,7 @@
         <v>104.16</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>44144</v>
       </c>
@@ -3677,7 +3420,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>44147</v>
       </c>
@@ -3704,7 +3447,7 @@
         <v>224.53999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>44150</v>
       </c>
@@ -3731,7 +3474,7 @@
         <v>90.88</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>44153</v>
       </c>
@@ -3758,7 +3501,7 @@
         <v>123.42</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>44156</v>
       </c>
@@ -3785,7 +3528,7 @@
         <v>275.48</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>44159</v>
       </c>
@@ -3812,7 +3555,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>44162</v>
       </c>
@@ -3839,7 +3582,7 @@
         <v>48.72</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>44165</v>
       </c>
@@ -3866,7 +3609,7 @@
         <v>162.84</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>44168</v>
       </c>
@@ -3893,7 +3636,7 @@
         <v>303.02</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>44171</v>
       </c>
@@ -3920,7 +3663,7 @@
         <v>82.36</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>44174</v>
       </c>
@@ -3947,7 +3690,7 @@
         <v>68.099999999999994</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>44177</v>
       </c>
@@ -3974,7 +3717,7 @@
         <v>67.319999999999993</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>44180</v>
       </c>
@@ -4001,7 +3744,7 @@
         <v>143.09</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>44183</v>
       </c>
@@ -4028,7 +3771,7 @@
         <v>77.88</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>44186</v>
       </c>
@@ -4055,7 +3798,7 @@
         <v>48.72</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>44189</v>
       </c>
@@ -4082,7 +3825,7 @@
         <v>516.66</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>44192</v>
       </c>
@@ -4109,7 +3852,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>44195</v>
       </c>
@@ -4136,7 +3879,7 @@
         <v>180.94000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>44198</v>
       </c>
@@ -4163,7 +3906,7 @@
         <v>69.760000000000005</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>44201</v>
       </c>
@@ -4190,7 +3933,7 @@
         <v>111.51</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>44204</v>
       </c>
@@ -4217,7 +3960,7 @@
         <v>91.35</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>44207</v>
       </c>
@@ -4244,7 +3987,7 @@
         <v>143.99</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>44210</v>
       </c>
@@ -4271,7 +4014,7 @@
         <v>227.2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>44213</v>
       </c>
@@ -4298,7 +4041,7 @@
         <v>180.54</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>44216</v>
       </c>
@@ -4325,7 +4068,7 @@
         <v>108.19</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>44219</v>
       </c>
@@ -4352,7 +4095,7 @@
         <v>99.12</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>44222</v>
       </c>
@@ -4379,7 +4122,7 @@
         <v>113.36000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>44225</v>
       </c>
@@ -4406,7 +4149,7 @@
         <v>90.27</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>44228</v>
       </c>
@@ -4433,7 +4176,7 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>44231</v>
       </c>
@@ -4460,7 +4203,7 @@
         <v>126.44000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>44234</v>
       </c>
@@ -4487,7 +4230,7 @@
         <v>63.58</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>44237</v>
       </c>
@@ -4514,7 +4257,7 @@
         <v>60.18</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>44240</v>
       </c>
@@ -4541,7 +4284,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>44243</v>
       </c>
@@ -4568,7 +4311,7 @@
         <v>82.36</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>44246</v>
       </c>
@@ -4595,7 +4338,7 @@
         <v>120.36</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>44249</v>
       </c>
@@ -4622,7 +4365,7 @@
         <v>97.65</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>44252</v>
       </c>
@@ -4649,7 +4392,7 @@
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>44255</v>
       </c>
@@ -4676,7 +4419,7 @@
         <v>433.84</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>44257</v>
       </c>
@@ -4703,7 +4446,7 @@
         <v>127.16</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>44260</v>
       </c>
@@ -4730,7 +4473,7 @@
         <v>275.48</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>44263</v>
       </c>
@@ -4757,7 +4500,7 @@
         <v>160.82</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>44266</v>
       </c>
@@ -4784,7 +4527,7 @@
         <v>68.88</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>44269</v>
       </c>
@@ -4811,7 +4554,7 @@
         <v>164.61</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>44272</v>
       </c>
@@ -4838,7 +4581,7 @@
         <v>78.959999999999994</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>44275</v>
       </c>
@@ -4865,7 +4608,7 @@
         <v>182.31</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>44278</v>
       </c>
@@ -4892,7 +4635,7 @@
         <v>55.44</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>44281</v>
       </c>
@@ -4919,7 +4662,7 @@
         <v>106.59</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>44284</v>
       </c>
@@ -4946,7 +4689,7 @@
         <v>184.6</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>44287</v>
       </c>
@@ -4973,7 +4716,7 @@
         <v>208.86</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>44290</v>
       </c>
@@ -5000,7 +4743,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>44293</v>
       </c>
@@ -5027,7 +4770,7 @@
         <v>349.32</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>44296</v>
       </c>
@@ -5054,7 +4797,7 @@
         <v>159.30000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>44299</v>
       </c>
@@ -5081,7 +4824,7 @@
         <v>73.290000000000006</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>44302</v>
       </c>
@@ -5108,7 +4851,7 @@
         <v>84.96</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>44305</v>
       </c>
@@ -5135,7 +4878,7 @@
         <v>40.32</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>44308</v>
       </c>
@@ -5162,7 +4905,7 @@
         <v>125.29</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>44311</v>
       </c>
@@ -5189,7 +4932,7 @@
         <v>50.49</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>44314</v>
       </c>
@@ -5216,7 +4959,7 @@
         <v>366.36</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>44317</v>
       </c>
@@ -5243,7 +4986,7 @@
         <v>167.86</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>44320</v>
       </c>
@@ -5270,7 +5013,7 @@
         <v>108.46</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>44323</v>
       </c>
@@ -5297,7 +5040,7 @@
         <v>87.89</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>44326</v>
       </c>
@@ -5324,7 +5067,7 @@
         <v>93.72</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>44329</v>
       </c>
@@ -5351,7 +5094,7 @@
         <v>153.34</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>44332</v>
       </c>
@@ -5378,7 +5121,7 @@
         <v>102.66</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>44335</v>
       </c>
@@ -5405,7 +5148,7 @@
         <v>94.5</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>44338</v>
       </c>
@@ -5432,7 +5175,7 @@
         <v>80.41</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>44341</v>
       </c>
@@ -5459,7 +5202,7 @@
         <v>148.68</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>44344</v>
       </c>
@@ -5486,7 +5229,7 @@
         <v>78.48</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>44347</v>
       </c>
@@ -5513,7 +5256,7 @@
         <v>124.96</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>44350</v>
       </c>
@@ -5540,7 +5283,7 @@
         <v>50.49</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>44353</v>
       </c>
@@ -5567,7 +5310,7 @@
         <v>340.8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>44356</v>
       </c>
@@ -5594,7 +5337,7 @@
         <v>90.74</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>44359</v>
       </c>
@@ -5621,7 +5364,7 @@
         <v>129.21</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>44362</v>
       </c>
@@ -5648,7 +5391,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>44365</v>
       </c>
@@ -5675,7 +5418,7 @@
         <v>113.6</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>44368</v>
       </c>
@@ -5702,7 +5445,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>44371</v>
       </c>
@@ -5729,7 +5472,7 @@
         <v>61.29</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>44374</v>
       </c>
@@ -5756,7 +5499,7 @@
         <v>71.06</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>44377</v>
       </c>
@@ -5783,7 +5526,7 @@
         <v>118.66</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>44380</v>
       </c>
@@ -5810,7 +5553,7 @@
         <v>121.55</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>44383</v>
       </c>
@@ -5837,7 +5580,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>44386</v>
       </c>
@@ -5864,7 +5607,7 @@
         <v>80.66</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>44389</v>
       </c>
@@ -5891,7 +5634,7 @@
         <v>74.8</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>44392</v>
       </c>
@@ -5918,7 +5661,7 @@
         <v>48.62</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>44395</v>
       </c>
@@ -5945,7 +5688,7 @@
         <v>49.94</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>44398</v>
       </c>
@@ -5972,7 +5715,7 @@
         <v>59.84</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>44401</v>
       </c>
@@ -5999,7 +5742,7 @@
         <v>80.27</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>44404</v>
       </c>
@@ -6026,7 +5769,7 @@
         <v>43.6</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>44407</v>
       </c>
@@ -6053,7 +5796,7 @@
         <v>119.68</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>44410</v>
       </c>
@@ -6080,7 +5823,7 @@
         <v>125.67</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>44413</v>
       </c>
@@ -6107,7 +5850,7 @@
         <v>196.2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>44416</v>
       </c>
@@ -6134,7 +5877,7 @@
         <v>107.91999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>44419</v>
       </c>
@@ -6161,7 +5904,7 @@
         <v>97.35</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>44422</v>
       </c>
@@ -6188,7 +5931,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>44425</v>
       </c>
@@ -6215,7 +5958,7 @@
         <v>60.18</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>44428</v>
       </c>
@@ -6242,7 +5985,7 @@
         <v>72.930000000000007</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A202" s="1">
         <v>44431</v>
       </c>
@@ -6269,7 +6012,7 @@
         <v>116.44</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A203" s="1">
         <v>44434</v>
       </c>
@@ -6296,7 +6039,7 @@
         <v>72.569999999999993</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A204" s="1">
         <v>44437</v>
       </c>
@@ -6323,7 +6066,7 @@
         <v>296.48</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A205" s="1">
         <v>44440</v>
       </c>
@@ -6350,7 +6093,7 @@
         <v>44.25</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A206" s="1">
         <v>44443</v>
       </c>
@@ -6377,7 +6120,7 @@
         <v>81.900000000000006</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A207" s="1">
         <v>44446</v>
       </c>
@@ -6404,7 +6147,7 @@
         <v>93.5</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A208" s="1">
         <v>44449</v>
       </c>
@@ -6431,7 +6174,7 @@
         <v>224.36</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A209" s="1">
         <v>44452</v>
       </c>
@@ -6458,7 +6201,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A210" s="1">
         <v>44455</v>
       </c>
@@ -6485,7 +6228,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A211" s="1">
         <v>44458</v>
       </c>
@@ -6512,7 +6255,7 @@
         <v>86.73</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A212" s="1">
         <v>44461</v>
       </c>
@@ -6539,7 +6282,7 @@
         <v>87.2</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A213" s="1">
         <v>44464</v>
       </c>
@@ -6566,7 +6309,7 @@
         <v>54.87</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A214" s="1">
         <v>44467</v>
       </c>
@@ -6593,7 +6336,7 @@
         <v>66.150000000000006</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A215" s="1">
         <v>44470</v>
       </c>
@@ -6620,7 +6363,7 @@
         <v>80.41</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A216" s="1">
         <v>44473</v>
       </c>
@@ -6647,7 +6390,7 @@
         <v>133.47999999999999</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A217" s="1">
         <v>44476</v>
       </c>
@@ -6674,7 +6417,7 @@
         <v>381.5</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A218" s="1">
         <v>44479</v>
       </c>
@@ -6701,7 +6444,7 @@
         <v>43.01</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A219" s="1">
         <v>44482</v>
       </c>
@@ -6728,7 +6471,7 @@
         <v>70.8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A220" s="1">
         <v>44485</v>
       </c>
@@ -6755,7 +6498,7 @@
         <v>189.66000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A221" s="1">
         <v>44488</v>
       </c>
@@ -6782,7 +6525,7 @@
         <v>76.11</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A222" s="1">
         <v>44491</v>
       </c>
@@ -6809,7 +6552,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A223" s="1">
         <v>44494</v>
       </c>
@@ -6836,7 +6579,7 @@
         <v>61.95</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A224" s="1">
         <v>44497</v>
       </c>
@@ -6863,7 +6606,7 @@
         <v>106.59</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A225" s="1">
         <v>44500</v>
       </c>
@@ -6890,7 +6633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A226" s="1">
         <v>44503</v>
       </c>
@@ -6917,7 +6660,7 @@
         <v>44.88</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A227" s="1">
         <v>44506</v>
       </c>
@@ -6944,7 +6687,7 @@
         <v>155.21</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A228" s="1">
         <v>44509</v>
       </c>
@@ -6971,7 +6714,7 @@
         <v>352.16</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A229" s="1">
         <v>44512</v>
       </c>
@@ -6998,7 +6741,7 @@
         <v>242.49</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A230" s="1">
         <v>44515</v>
       </c>
@@ -7025,7 +6768,7 @@
         <v>318.27999999999997</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A231" s="1">
         <v>44518</v>
       </c>
@@ -7052,7 +6795,7 @@
         <v>63.58</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A232" s="1">
         <v>44521</v>
       </c>
@@ -7079,7 +6822,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A233" s="1">
         <v>44524</v>
       </c>
@@ -7106,7 +6849,7 @@
         <v>303.02</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A234" s="1">
         <v>44527</v>
       </c>
@@ -7133,7 +6876,7 @@
         <v>394.57</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A235" s="1">
         <v>44530</v>
       </c>
@@ -7160,7 +6903,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A236" s="1">
         <v>44533</v>
       </c>
@@ -7187,7 +6930,7 @@
         <v>78.540000000000006</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A237" s="1">
         <v>44536</v>
       </c>
@@ -7214,7 +6957,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A238" s="1">
         <v>44539</v>
       </c>
@@ -7241,7 +6984,7 @@
         <v>67.260000000000005</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A239" s="1">
         <v>44542</v>
       </c>
@@ -7268,7 +7011,7 @@
         <v>87.25</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A240" s="1">
         <v>44545</v>
       </c>
@@ -7295,7 +7038,7 @@
         <v>179.52</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A241" s="1">
         <v>44548</v>
       </c>
@@ -7322,7 +7065,7 @@
         <v>74.12</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A242" s="1">
         <v>44551</v>
       </c>
@@ -7349,7 +7092,7 @@
         <v>458.15</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A243" s="1">
         <v>44554</v>
       </c>
@@ -7376,7 +7119,7 @@
         <v>104.7</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A244" s="1">
         <v>44557</v>
       </c>
@@ -7403,7 +7146,7 @@
         <v>56.1</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A245" s="1">
         <v>44560</v>
       </c>
@@ -7437,107 +7180,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9DB6C8-9383-4392-85D3-3BCF2C287F0C}">
-  <sheetPr codeName="Sheet16"/>
-  <dimension ref="B2:C12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" style="9" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-    </row>
-    <row r="5" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-    </row>
-    <row r="11" spans="2:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{76633B83-A5D5-4616-93E1-73105A0E2F24}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{3A4191C3-1A7F-4C48-AECF-87F1FB2E3293}"/>
-    <hyperlink ref="B7" r:id="rId3" xr:uid="{B06B14AF-1DA0-4C7E-8F75-C1F445CCE3DE}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{029F42A0-09A2-4CC0-B081-74AD53F02675}"/>
-    <hyperlink ref="B12" r:id="rId5" tooltip="Contextures Recommends" xr:uid="{0E271FCB-4FC1-4FA8-B87C-BBAFB09B8FFB}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{AD6686A4-CFEE-427F-A81A-2C2A1CC3D7FD}"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;Lwww.contextures.com&amp;R&amp;D</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>